--- a/paper/experiments.xlsx
+++ b/paper/experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>SQUARE</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>STRONG SCALING</t>
-  </si>
-  <si>
-    <t>8847360</t>
   </si>
   <si>
     <t>90MiB</t>
@@ -340,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
@@ -351,36 +345,39 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,25 +676,27 @@
     <col min="17" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="48" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="7" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>11</v>
+      <c r="U3" s="1">
+        <v>8847360</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -790,14 +789,14 @@
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3">
-        <v>2048</v>
+        <v>17408</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AG5" s="3">
-        <v>524288</v>
+        <v>3735552</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
@@ -816,7 +815,7 @@
       <c r="AV5" s="3"/>
     </row>
     <row r="6" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="24"/>
@@ -900,7 +899,7 @@
       <c r="AV6" s="3"/>
     </row>
     <row r="7" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="24"/>
       <c r="C7" s="16" t="s">
         <v>2</v>
@@ -1054,7 +1053,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1108,7 +1107,7 @@
       <c r="AV8" s="19"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1162,7 +1161,7 @@
       <c r="AV9" s="8"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1216,7 +1215,7 @@
       <c r="AV10" s="8"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1270,7 +1269,7 @@
       <c r="AV11" s="8"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1320,8 +1319,8 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1332,7 +1331,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="29"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1341,288 +1340,288 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="29"/>
+      <c r="V13" s="28"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="30" t="s">
-        <v>15</v>
+      <c r="Z13" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AB13" s="5">
-        <f>FLOOR(SQRT(AB7*$U$3/512),1)</f>
-        <v>262</v>
+        <f>FLOOR((136^2*AB$7*$U$3/2/228)^(1/3),1)</f>
+        <v>1128</v>
       </c>
       <c r="AC13" s="5">
-        <f>FLOOR(SQRT(AC7*$U$3/512),1)</f>
-        <v>347</v>
+        <f t="shared" ref="AC13:AV13" si="9">FLOOR((136^2*AC$7*$U$3/2/228)^(1/3),1)</f>
+        <v>1359</v>
       </c>
       <c r="AD13" s="5">
-        <f>FLOOR(SQRT(AD7*$U$3/512),1)</f>
-        <v>371</v>
+        <f t="shared" si="9"/>
+        <v>1421</v>
       </c>
       <c r="AE13" s="5">
-        <f>FLOOR(SQRT(AE7*$U$3/512),1)</f>
-        <v>473</v>
+        <f t="shared" si="9"/>
+        <v>1670</v>
       </c>
       <c r="AF13" s="5">
-        <f>FLOOR(SQRT(AF7*$U$3/512),1)</f>
-        <v>525</v>
+        <f t="shared" si="9"/>
+        <v>1790</v>
       </c>
       <c r="AG13" s="5">
-        <f>FLOOR(SQRT(AG7*$U$3/512),1)</f>
-        <v>657</v>
+        <f t="shared" si="9"/>
+        <v>2077</v>
       </c>
       <c r="AH13" s="5">
-        <f>FLOOR(SQRT(AH7*$U$3/512),1)</f>
-        <v>683</v>
+        <f t="shared" si="9"/>
+        <v>2131</v>
       </c>
       <c r="AI13" s="5">
-        <f>FLOOR(SQRT(AI7*$U$3/512),1)</f>
-        <v>743</v>
+        <f t="shared" si="9"/>
+        <v>2256</v>
       </c>
       <c r="AJ13" s="5">
-        <f>FLOOR(SQRT(AJ7*$U$3/512),1)</f>
-        <v>799</v>
+        <f t="shared" si="9"/>
+        <v>2367</v>
       </c>
       <c r="AK13" s="5">
-        <f>FLOOR(SQRT(AK7*$U$3/512),1)</f>
-        <v>1026</v>
+        <f t="shared" si="9"/>
+        <v>2797</v>
       </c>
       <c r="AL13" s="5">
-        <f>FLOOR(SQRT(AL7*$U$3/512),1)</f>
-        <v>1051</v>
+        <f t="shared" si="9"/>
+        <v>2842</v>
       </c>
       <c r="AM13" s="5">
-        <f>FLOOR(SQRT(AM7*$U$3/512),1)</f>
-        <v>1183</v>
+        <f t="shared" si="9"/>
+        <v>3074</v>
       </c>
       <c r="AN13" s="5">
-        <f>FLOOR(SQRT(AN7*$U$3/512),1)</f>
-        <v>1267</v>
+        <f t="shared" si="9"/>
+        <v>3219</v>
       </c>
       <c r="AO13" s="5">
-        <f>FLOOR(SQRT(AO7*$U$3/512),1)</f>
-        <v>1487</v>
+        <f t="shared" si="9"/>
+        <v>3581</v>
       </c>
       <c r="AP13" s="5">
-        <f>FLOOR(SQRT(AP7*$U$3/512),1)</f>
-        <v>1863</v>
+        <f t="shared" si="9"/>
+        <v>4162</v>
       </c>
       <c r="AQ13" s="5">
-        <f>FLOOR(SQRT(AQ7*$U$3/512),1)</f>
-        <v>1931</v>
+        <f t="shared" si="9"/>
+        <v>4263</v>
       </c>
       <c r="AR13" s="5">
-        <f>FLOOR(SQRT(AR7*$U$3/512),1)</f>
-        <v>2103</v>
+        <f t="shared" si="9"/>
+        <v>4512</v>
       </c>
       <c r="AS13" s="5">
-        <f>FLOOR(SQRT(AS7*$U$3/512),1)</f>
-        <v>2398</v>
+        <f t="shared" si="9"/>
+        <v>4925</v>
       </c>
       <c r="AT13" s="5">
-        <f>FLOOR(SQRT(AT7*$U$3/512),1)</f>
-        <v>2858</v>
+        <f t="shared" si="9"/>
+        <v>5536</v>
       </c>
       <c r="AU13" s="5">
-        <f>FLOOR(SQRT(AU7*$U$3/512),1)</f>
-        <v>2974</v>
+        <f t="shared" si="9"/>
+        <v>5685</v>
       </c>
       <c r="AV13" s="5">
-        <f>FLOOR(SQRT(AV7*$U$3/512),1)</f>
-        <v>3219</v>
+        <f t="shared" si="9"/>
+        <v>5993</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>15</v>
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <f>FLOOR(SQRT(D7*$U$3/2),1)</f>
+        <f t="shared" ref="D14:X14" si="10">FLOOR(SQRT(D7*$U$3/2),1)</f>
         <v>4206</v>
       </c>
       <c r="E14" s="4">
-        <f>FLOOR(SQRT(E7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>5564</v>
       </c>
       <c r="F14" s="4">
-        <f>FLOOR(SQRT(F7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>5948</v>
       </c>
       <c r="G14" s="4">
-        <f>FLOOR(SQRT(G7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>7583</v>
       </c>
       <c r="H14" s="4">
-        <f>FLOOR(SQRT(H7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>8413</v>
       </c>
       <c r="I14" s="4">
-        <f>FLOOR(SQRT(I7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>10516</v>
       </c>
       <c r="J14" s="4">
-        <f>FLOOR(SQRT(J7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>10928</v>
       </c>
       <c r="K14" s="4">
-        <f>FLOOR(SQRT(K7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>11897</v>
       </c>
       <c r="L14" s="4">
-        <f>FLOOR(SQRT(L7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>12793</v>
       </c>
       <c r="M14" s="4">
-        <f>FLOOR(SQRT(M7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>16426</v>
       </c>
       <c r="N14" s="4">
-        <f>FLOOR(SQRT(N7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>16826</v>
       </c>
       <c r="O14" s="4">
-        <f>FLOOR(SQRT(O7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>18929</v>
       </c>
       <c r="P14" s="4">
-        <f>FLOOR(SQRT(P7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>20283</v>
       </c>
       <c r="Q14" s="4">
-        <f>FLOOR(SQRT(Q7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>23795</v>
       </c>
       <c r="R14" s="4">
-        <f>FLOOR(SQRT(R7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>29818</v>
       </c>
       <c r="S14" s="4">
-        <f>FLOOR(SQRT(S7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>30911</v>
       </c>
       <c r="T14" s="4">
-        <f>FLOOR(SQRT(T7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>33652</v>
       </c>
       <c r="U14" s="4">
-        <f>FLOOR(SQRT(U7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>38380</v>
       </c>
       <c r="V14" s="4">
-        <f>FLOOR(SQRT(V7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>45742</v>
       </c>
       <c r="W14" s="4">
-        <f>FLOOR(SQRT(W7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>47591</v>
       </c>
       <c r="X14" s="4">
-        <f>FLOOR(SQRT(X7*$U$3/2),1)</f>
+        <f t="shared" si="10"/>
         <v>51519</v>
       </c>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="30"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB14" s="5">
-        <f>AB13*256</f>
-        <v>67072</v>
+        <f>FLOOR(AB13^2*228/136^2,1)</f>
+        <v>15684</v>
       </c>
       <c r="AC14" s="5">
-        <f>AC13*256</f>
-        <v>88832</v>
+        <f t="shared" ref="AC14:AV14" si="11">FLOOR(AC13^2*228/136^2,1)</f>
+        <v>22766</v>
       </c>
       <c r="AD14" s="5">
-        <f>AD13*256</f>
-        <v>94976</v>
+        <f t="shared" si="11"/>
+        <v>24891</v>
       </c>
       <c r="AE14" s="5">
-        <f>AE13*256</f>
-        <v>121088</v>
+        <f t="shared" si="11"/>
+        <v>34378</v>
       </c>
       <c r="AF14" s="5">
-        <f>AF13*256</f>
-        <v>134400</v>
+        <f t="shared" si="11"/>
+        <v>39496</v>
       </c>
       <c r="AG14" s="5">
-        <f>AG13*256</f>
-        <v>168192</v>
+        <f t="shared" si="11"/>
+        <v>53177</v>
       </c>
       <c r="AH14" s="5">
-        <f>AH13*256</f>
-        <v>174848</v>
+        <f t="shared" si="11"/>
+        <v>55978</v>
       </c>
       <c r="AI14" s="5">
-        <f>AI13*256</f>
-        <v>190208</v>
+        <f t="shared" si="11"/>
+        <v>62738</v>
       </c>
       <c r="AJ14" s="5">
-        <f>AJ13*256</f>
-        <v>204544</v>
+        <f t="shared" si="11"/>
+        <v>69064</v>
       </c>
       <c r="AK14" s="5">
-        <f>AK13*256</f>
-        <v>262656</v>
+        <f t="shared" si="11"/>
+        <v>96436</v>
       </c>
       <c r="AL14" s="5">
-        <f>AL13*256</f>
-        <v>269056</v>
+        <f t="shared" si="11"/>
+        <v>99564</v>
       </c>
       <c r="AM14" s="5">
-        <f>AM13*256</f>
-        <v>302848</v>
+        <f t="shared" si="11"/>
+        <v>116483</v>
       </c>
       <c r="AN14" s="5">
-        <f>AN13*256</f>
-        <v>324352</v>
+        <f t="shared" si="11"/>
+        <v>127731</v>
       </c>
       <c r="AO14" s="5">
-        <f>AO13*256</f>
-        <v>380672</v>
+        <f t="shared" si="11"/>
+        <v>158075</v>
       </c>
       <c r="AP14" s="5">
-        <f>AP13*256</f>
-        <v>476928</v>
+        <f t="shared" si="11"/>
+        <v>213531</v>
       </c>
       <c r="AQ14" s="5">
-        <f>AQ13*256</f>
-        <v>494336</v>
+        <f t="shared" si="11"/>
+        <v>224020</v>
       </c>
       <c r="AR14" s="5">
-        <f>AR13*256</f>
-        <v>538368</v>
+        <f t="shared" si="11"/>
+        <v>250954</v>
       </c>
       <c r="AS14" s="5">
-        <f>AS13*256</f>
-        <v>613888</v>
+        <f t="shared" si="11"/>
+        <v>298998</v>
       </c>
       <c r="AT14" s="5">
-        <f>AT13*256</f>
-        <v>731648</v>
+        <f t="shared" si="11"/>
+        <v>377788</v>
       </c>
       <c r="AU14" s="5">
-        <f>AU13*256</f>
-        <v>761344</v>
+        <f t="shared" si="11"/>
+        <v>398398</v>
       </c>
       <c r="AV14" s="5">
-        <f>AV13*256</f>
-        <v>824064</v>
+        <f t="shared" si="11"/>
+        <v>442736</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="30"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1674,8 @@
       <c r="AV15" s="9"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="30"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1729,8 +1728,8 @@
       <c r="AV16" s="9"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1755,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="30"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1783,8 +1782,8 @@
       <c r="AV17" s="9"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="30"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1836,7 @@
       <c r="AV18" s="9"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1887,7 +1886,7 @@
       <c r="AV19" s="5"/>
     </row>
     <row r="20" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1912,282 +1911,282 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="30" t="s">
-        <v>16</v>
+      <c r="Z20" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AB20" s="5">
-        <f>FLOOR(SQRT(AB7^(2/3)*$U$3/512),1)</f>
-        <v>208</v>
+        <f>FLOOR((136^2*AB$7^(2/3)*$U$3/2/228)^(1/3),1)</f>
+        <v>967</v>
       </c>
       <c r="AC20" s="5">
-        <f>FLOOR(SQRT(AC7^(2/3)*$U$3/512),1)</f>
-        <v>251</v>
+        <f t="shared" ref="AC20:AV20" si="12">FLOOR((136^2*AC$7^(2/3)*$U$3/2/228)^(1/3),1)</f>
+        <v>1095</v>
       </c>
       <c r="AD20" s="5">
-        <f>FLOOR(SQRT(AD7^(2/3)*$U$3/512),1)</f>
-        <v>262</v>
+        <f t="shared" si="12"/>
+        <v>1128</v>
       </c>
       <c r="AE20" s="5">
-        <f>FLOOR(SQRT(AE7^(2/3)*$U$3/512),1)</f>
-        <v>309</v>
+        <f t="shared" si="12"/>
+        <v>1256</v>
       </c>
       <c r="AF20" s="5">
-        <f>FLOOR(SQRT(AF7^(2/3)*$U$3/512),1)</f>
-        <v>331</v>
+        <f t="shared" si="12"/>
+        <v>1315</v>
       </c>
       <c r="AG20" s="5">
-        <f>FLOOR(SQRT(AG7^(2/3)*$U$3/512),1)</f>
-        <v>384</v>
+        <f t="shared" si="12"/>
+        <v>1453</v>
       </c>
       <c r="AH20" s="5">
-        <f>FLOOR(SQRT(AH7^(2/3)*$U$3/512),1)</f>
-        <v>394</v>
+        <f t="shared" si="12"/>
+        <v>1478</v>
       </c>
       <c r="AI20" s="5">
-        <f>FLOOR(SQRT(AI7^(2/3)*$U$3/512),1)</f>
-        <v>417</v>
+        <f t="shared" si="12"/>
+        <v>1535</v>
       </c>
       <c r="AJ20" s="5">
-        <f>FLOOR(SQRT(AJ7^(2/3)*$U$3/512),1)</f>
-        <v>438</v>
+        <f t="shared" si="12"/>
+        <v>1585</v>
       </c>
       <c r="AK20" s="5">
-        <f>FLOOR(SQRT(AK7^(2/3)*$U$3/512),1)</f>
-        <v>517</v>
+        <f t="shared" si="12"/>
+        <v>1771</v>
       </c>
       <c r="AL20" s="5">
-        <f>FLOOR(SQRT(AL7^(2/3)*$U$3/512),1)</f>
-        <v>525</v>
+        <f t="shared" si="12"/>
+        <v>1790</v>
       </c>
       <c r="AM20" s="5">
-        <f>FLOOR(SQRT(AM7^(2/3)*$U$3/512),1)</f>
-        <v>568</v>
+        <f t="shared" si="12"/>
+        <v>1886</v>
       </c>
       <c r="AN20" s="5">
-        <f>FLOOR(SQRT(AN7^(2/3)*$U$3/512),1)</f>
-        <v>595</v>
+        <f t="shared" si="12"/>
+        <v>1945</v>
       </c>
       <c r="AO20" s="5">
-        <f>FLOOR(SQRT(AO7^(2/3)*$U$3/512),1)</f>
-        <v>662</v>
+        <f t="shared" si="12"/>
+        <v>2088</v>
       </c>
       <c r="AP20" s="5">
-        <f>FLOOR(SQRT(AP7^(2/3)*$U$3/512),1)</f>
-        <v>770</v>
+        <f t="shared" si="12"/>
+        <v>2309</v>
       </c>
       <c r="AQ20" s="5">
-        <f>FLOOR(SQRT(AQ7^(2/3)*$U$3/512),1)</f>
-        <v>788</v>
+        <f t="shared" si="12"/>
+        <v>2346</v>
       </c>
       <c r="AR20" s="5">
-        <f>FLOOR(SQRT(AR7^(2/3)*$U$3/512),1)</f>
-        <v>834</v>
+        <f t="shared" si="12"/>
+        <v>2436</v>
       </c>
       <c r="AS20" s="5">
-        <f>FLOOR(SQRT(AS7^(2/3)*$U$3/512),1)</f>
-        <v>911</v>
+        <f t="shared" si="12"/>
+        <v>2583</v>
       </c>
       <c r="AT20" s="5">
-        <f>FLOOR(SQRT(AT7^(2/3)*$U$3/512),1)</f>
-        <v>1024</v>
+        <f t="shared" si="12"/>
+        <v>2792</v>
       </c>
       <c r="AU20" s="5">
-        <f>FLOOR(SQRT(AU7^(2/3)*$U$3/512),1)</f>
-        <v>1051</v>
+        <f t="shared" si="12"/>
+        <v>2842</v>
       </c>
       <c r="AV20" s="5">
-        <f>FLOOR(SQRT(AV7^(2/3)*$U$3/512),1)</f>
-        <v>1108</v>
+        <f t="shared" si="12"/>
+        <v>2944</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
-        <v>16</v>
+      <c r="A21" s="40"/>
+      <c r="B21" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="4">
-        <f>FLOOR(SQRT(D7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" ref="D21:X21" si="13">FLOOR(SQRT(D7^(2/3)*$U$3/2),1)</f>
         <v>3338</v>
       </c>
       <c r="E21" s="4">
-        <f>FLOOR(SQRT(E7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>4023</v>
       </c>
       <c r="F21" s="4">
-        <f>FLOOR(SQRT(F7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>4206</v>
       </c>
       <c r="G21" s="4">
-        <f>FLOOR(SQRT(G7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>4945</v>
       </c>
       <c r="H21" s="4">
-        <f>FLOOR(SQRT(H7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>5299</v>
       </c>
       <c r="I21" s="4">
-        <f>FLOOR(SQRT(I7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>6149</v>
       </c>
       <c r="J21" s="4">
-        <f>FLOOR(SQRT(J7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>6309</v>
       </c>
       <c r="K21" s="4">
-        <f>FLOOR(SQRT(K7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>6677</v>
       </c>
       <c r="L21" s="4">
-        <f>FLOOR(SQRT(L7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>7008</v>
       </c>
       <c r="M21" s="4">
-        <f>FLOOR(SQRT(M7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>8279</v>
       </c>
       <c r="N21" s="4">
-        <f>FLOOR(SQRT(N7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>8413</v>
       </c>
       <c r="O21" s="4">
-        <f>FLOOR(SQRT(O7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>9100</v>
       </c>
       <c r="P21" s="4">
-        <f>FLOOR(SQRT(P7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>9529</v>
       </c>
       <c r="Q21" s="4">
-        <f>FLOOR(SQRT(Q7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>10599</v>
       </c>
       <c r="R21" s="4">
-        <f>FLOOR(SQRT(R7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>12320</v>
       </c>
       <c r="S21" s="4">
-        <f>FLOOR(SQRT(S7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>12619</v>
       </c>
       <c r="T21" s="4">
-        <f>FLOOR(SQRT(T7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>13354</v>
       </c>
       <c r="U21" s="4">
-        <f>FLOOR(SQRT(U7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>14578</v>
       </c>
       <c r="V21" s="4">
-        <f>FLOOR(SQRT(V7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>16387</v>
       </c>
       <c r="W21" s="4">
-        <f>FLOOR(SQRT(W7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>16826</v>
       </c>
       <c r="X21" s="4">
-        <f>FLOOR(SQRT(X7^(2/3)*$U$3/2),1)</f>
+        <f t="shared" si="13"/>
         <v>17739</v>
       </c>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="30"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB21" s="5">
-        <f>AB20*256</f>
-        <v>53248</v>
+        <f>FLOOR(AB20^2*228/136^2,1)</f>
+        <v>11526</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" ref="AC21:AV21" si="9">AC20*256</f>
-        <v>64256</v>
+        <f t="shared" ref="AC21:AV21" si="14">FLOOR(AC20^2*228/136^2,1)</f>
+        <v>14780</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" si="9"/>
-        <v>67072</v>
+        <f t="shared" si="14"/>
+        <v>15684</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="9"/>
-        <v>79104</v>
+        <f t="shared" si="14"/>
+        <v>19446</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" si="9"/>
-        <v>84736</v>
+        <f t="shared" si="14"/>
+        <v>21316</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" si="9"/>
-        <v>98304</v>
+        <f t="shared" si="14"/>
+        <v>26024</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" si="9"/>
-        <v>100864</v>
+        <f t="shared" si="14"/>
+        <v>26928</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="9"/>
-        <v>106752</v>
+        <f t="shared" si="14"/>
+        <v>29045</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="9"/>
-        <v>112128</v>
+        <f t="shared" si="14"/>
+        <v>30968</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="9"/>
-        <v>132352</v>
+        <f t="shared" si="14"/>
+        <v>38662</v>
       </c>
       <c r="AL21" s="5">
-        <f t="shared" si="9"/>
-        <v>134400</v>
+        <f t="shared" si="14"/>
+        <v>39496</v>
       </c>
       <c r="AM21" s="5">
-        <f t="shared" si="9"/>
-        <v>145408</v>
+        <f t="shared" si="14"/>
+        <v>43847</v>
       </c>
       <c r="AN21" s="5">
-        <f t="shared" si="9"/>
-        <v>152320</v>
+        <f t="shared" si="14"/>
+        <v>46633</v>
       </c>
       <c r="AO21" s="5">
-        <f t="shared" si="9"/>
-        <v>169472</v>
+        <f t="shared" si="14"/>
+        <v>53742</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="9"/>
-        <v>197120</v>
+        <f t="shared" si="14"/>
+        <v>65721</v>
       </c>
       <c r="AQ21" s="5">
-        <f t="shared" si="9"/>
-        <v>201728</v>
+        <f t="shared" si="14"/>
+        <v>67844</v>
       </c>
       <c r="AR21" s="5">
-        <f t="shared" si="9"/>
-        <v>213504</v>
+        <f t="shared" si="14"/>
+        <v>73149</v>
       </c>
       <c r="AS21" s="5">
-        <f t="shared" si="9"/>
-        <v>233216</v>
+        <f t="shared" si="14"/>
+        <v>82244</v>
       </c>
       <c r="AT21" s="5">
-        <f t="shared" si="9"/>
-        <v>262144</v>
+        <f t="shared" si="14"/>
+        <v>96092</v>
       </c>
       <c r="AU21" s="5">
-        <f t="shared" si="9"/>
-        <v>269056</v>
+        <f t="shared" si="14"/>
+        <v>99564</v>
       </c>
       <c r="AV21" s="5">
-        <f t="shared" si="9"/>
-        <v>283648</v>
+        <f t="shared" si="14"/>
+        <v>106839</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2212,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="30"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2240,8 +2239,8 @@
       <c r="AV22" s="9"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2266,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="30"/>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2294,8 +2293,8 @@
       <c r="AV23" s="9"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2320,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="30"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2348,687 +2347,687 @@
       <c r="AV24" s="9"/>
     </row>
     <row r="25" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="38" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39"/>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
     </row>
     <row r="26" spans="1:48" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="40"/>
-      <c r="AV26" s="40"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="33"/>
     </row>
     <row r="27" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36">
         <v>8.5</v>
       </c>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44">
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36">
         <v>9</v>
       </c>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44">
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36">
         <v>9.5</v>
       </c>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44">
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36">
         <v>10</v>
       </c>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44">
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36">
         <v>10.5</v>
       </c>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44">
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36">
         <v>11</v>
       </c>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44">
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36">
         <v>11.5</v>
       </c>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44">
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36">
         <v>12</v>
       </c>
-      <c r="AV27" s="44"/>
+      <c r="AV27" s="36"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41">
+        <v>17</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34">
         <v>11.5</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34">
         <v>12</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34">
         <v>12.5</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34">
         <v>13</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41">
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34">
         <v>13.5</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34">
         <v>14</v>
       </c>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41">
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34">
         <v>14.5</v>
       </c>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41">
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34">
         <v>15</v>
       </c>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44" t="s">
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AB28" s="44">
+      <c r="AB28" s="36">
         <f>FLOOR(2^AB27,1)</f>
         <v>362</v>
       </c>
-      <c r="AC28" s="44">
+      <c r="AC28" s="36">
         <v>400</v>
       </c>
-      <c r="AD28" s="44">
-        <f t="shared" ref="AC28:AV28" si="10">FLOOR(2^AD27,1)</f>
+      <c r="AD28" s="36">
+        <f t="shared" ref="AD28:AU28" si="15">FLOOR(2^AD27,1)</f>
         <v>512</v>
       </c>
-      <c r="AE28" s="44">
+      <c r="AE28" s="36">
         <v>697</v>
       </c>
-      <c r="AF28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AF28" s="36">
+        <f t="shared" si="15"/>
         <v>724</v>
       </c>
-      <c r="AG28" s="44">
+      <c r="AG28" s="36">
         <v>800</v>
       </c>
-      <c r="AH28" s="44">
+      <c r="AH28" s="36">
         <v>1000</v>
       </c>
-      <c r="AI28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AI28" s="36">
+        <f t="shared" si="15"/>
         <v>1024</v>
       </c>
-      <c r="AJ28" s="44">
+      <c r="AJ28" s="36">
         <v>1256</v>
       </c>
-      <c r="AK28" s="44">
+      <c r="AK28" s="36">
         <v>1331</v>
       </c>
-      <c r="AL28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AL28" s="36">
+        <f t="shared" si="15"/>
         <v>1448</v>
       </c>
-      <c r="AM28" s="44">
+      <c r="AM28" s="36">
         <v>1600</v>
       </c>
-      <c r="AN28" s="44">
+      <c r="AN28" s="36">
         <v>1789</v>
       </c>
-      <c r="AO28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AO28" s="36">
+        <f t="shared" si="15"/>
         <v>2048</v>
       </c>
-      <c r="AP28" s="44">
+      <c r="AP28" s="36">
         <v>2222</v>
       </c>
-      <c r="AQ28" s="44">
+      <c r="AQ28" s="36">
         <v>2500</v>
       </c>
-      <c r="AR28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AR28" s="36">
+        <f t="shared" si="15"/>
         <v>2896</v>
       </c>
-      <c r="AS28" s="44">
+      <c r="AS28" s="36">
         <v>3210</v>
       </c>
-      <c r="AT28" s="44">
+      <c r="AT28" s="36">
         <v>3375</v>
       </c>
-      <c r="AU28" s="44">
-        <f t="shared" si="10"/>
+      <c r="AU28" s="36">
+        <f t="shared" si="15"/>
         <v>4096</v>
       </c>
-      <c r="AV28" s="44">
+      <c r="AV28" s="36">
         <v>5100</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="34">
         <f>2^D28</f>
         <v>2896.3093757400989</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="34">
         <v>3000</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="34">
         <f>2^F28</f>
         <v>4096</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="34">
         <v>4913</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="34">
         <f>2^H28</f>
         <v>5792.6187514801986</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="34">
         <v>6971</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="34">
         <v>7500</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="34">
         <f>2^K28</f>
         <v>8192</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="34">
         <v>9261</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="34">
         <v>10000</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="34">
         <f>2^N28</f>
         <v>11585.237502960397</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="34">
         <v>12800</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="34">
         <v>15001</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="34">
         <f>2^Q28</f>
         <v>16384</v>
       </c>
-      <c r="R29" s="41">
+      <c r="R29" s="34">
         <v>17890</v>
       </c>
-      <c r="S29" s="41">
+      <c r="S29" s="34">
         <v>19000</v>
       </c>
-      <c r="T29" s="41">
+      <c r="T29" s="34">
         <f>2^T28</f>
         <v>23170.475005920798</v>
       </c>
-      <c r="U29" s="41">
+      <c r="U29" s="34">
         <v>25600</v>
       </c>
-      <c r="V29" s="41">
+      <c r="V29" s="34">
         <v>29791</v>
       </c>
-      <c r="W29" s="41">
+      <c r="W29" s="34">
         <f>2^W28</f>
         <v>32768</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X29" s="34">
         <v>40000</v>
       </c>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44" t="s">
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AB29" s="44">
+      <c r="AB29" s="36">
         <f>AB28*256</f>
         <v>92672</v>
       </c>
-      <c r="AC29" s="44">
-        <f t="shared" ref="AC29:AV29" si="11">AC28*256</f>
+      <c r="AC29" s="36">
+        <f t="shared" ref="AC29:AV29" si="16">AC28*256</f>
         <v>102400</v>
       </c>
-      <c r="AD29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AD29" s="36">
+        <f t="shared" si="16"/>
         <v>131072</v>
       </c>
-      <c r="AE29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AE29" s="36">
+        <f t="shared" si="16"/>
         <v>178432</v>
       </c>
-      <c r="AF29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AF29" s="36">
+        <f t="shared" si="16"/>
         <v>185344</v>
       </c>
-      <c r="AG29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AG29" s="36">
+        <f t="shared" si="16"/>
         <v>204800</v>
       </c>
-      <c r="AH29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AH29" s="36">
+        <f t="shared" si="16"/>
         <v>256000</v>
       </c>
-      <c r="AI29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AI29" s="36">
+        <f t="shared" si="16"/>
         <v>262144</v>
       </c>
-      <c r="AJ29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AJ29" s="36">
+        <f t="shared" si="16"/>
         <v>321536</v>
       </c>
-      <c r="AK29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AK29" s="36">
+        <f t="shared" si="16"/>
         <v>340736</v>
       </c>
-      <c r="AL29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AL29" s="36">
+        <f t="shared" si="16"/>
         <v>370688</v>
       </c>
-      <c r="AM29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AM29" s="36">
+        <f t="shared" si="16"/>
         <v>409600</v>
       </c>
-      <c r="AN29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AN29" s="36">
+        <f t="shared" si="16"/>
         <v>457984</v>
       </c>
-      <c r="AO29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AO29" s="36">
+        <f t="shared" si="16"/>
         <v>524288</v>
       </c>
-      <c r="AP29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AP29" s="36">
+        <f t="shared" si="16"/>
         <v>568832</v>
       </c>
-      <c r="AQ29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AQ29" s="36">
+        <f t="shared" si="16"/>
         <v>640000</v>
       </c>
-      <c r="AR29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AR29" s="36">
+        <f t="shared" si="16"/>
         <v>741376</v>
       </c>
-      <c r="AS29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AS29" s="36">
+        <f t="shared" si="16"/>
         <v>821760</v>
       </c>
-      <c r="AT29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AT29" s="36">
+        <f t="shared" si="16"/>
         <v>864000</v>
       </c>
-      <c r="AU29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AU29" s="36">
+        <f t="shared" si="16"/>
         <v>1048576</v>
       </c>
-      <c r="AV29" s="44">
-        <f t="shared" si="11"/>
+      <c r="AV29" s="36">
+        <f t="shared" si="16"/>
         <v>1305600</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:A11"/>
     <mergeCell ref="Z13:Z18"/>
     <mergeCell ref="Z20:Z25"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/paper/experiments.xlsx
+++ b/paper/experiments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gk_pliki\uczelnia\doktorat\performance_modelling\repo\MMM\carma_cscs\CARMA\paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kabicm/Projects/carma-now/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4C9E3CA-B977-3B4B-B8B0-A9618F3BEF19}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -373,9 +377,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -657,22 +658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AV33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
     <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" customWidth="1"/>
-    <col min="16" max="16" width="6.21875" customWidth="1"/>
+    <col min="15" max="16" width="6.1640625" customWidth="1"/>
     <col min="17" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="6" bestFit="1" customWidth="1"/>
@@ -683,7 +683,7 @@
     <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O2" t="s">
         <v>12</v>
       </c>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
         <v>13</v>
       </c>
@@ -699,7 +699,7 @@
         <v>8847360</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
@@ -752,7 +752,7 @@
       <c r="AU4" s="12"/>
       <c r="AV4" s="12"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="2"/>
@@ -814,8 +814,8 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:48" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="24"/>
@@ -898,8 +898,8 @@
       </c>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:48" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="24"/>
       <c r="C7" s="16" t="s">
         <v>2</v>
@@ -1052,8 +1052,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
       <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1106,8 +1106,8 @@
       <c r="AU8" s="19"/>
       <c r="AV8" s="19"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
       <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -1160,8 +1160,8 @@
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
       <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1214,8 +1214,8 @@
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
       <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1268,7 +1268,7 @@
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1318,7 +1318,7 @@
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="4"/>
@@ -1344,7 +1344,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="39" t="s">
         <v>14</v>
       </c>
       <c r="AA13" s="5" t="s">
@@ -1435,22 +1435,22 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:X14" si="10">FLOOR(SQRT(D7*$U$3/2),1)</f>
+        <f>FLOOR(SQRT(D7*$U$3/2),1)</f>
         <v>4206</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D14:X14" si="10">FLOOR(SQRT(E7*$U$3/2),1)</f>
         <v>5564</v>
       </c>
       <c r="F14" s="4">
@@ -1530,7 +1530,7 @@
         <v>51519</v>
       </c>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="38"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1619,9 +1619,9 @@
         <v>442736</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="38"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1673,9 +1673,9 @@
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="38"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1727,9 +1727,9 @@
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="38"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1781,9 +1781,9 @@
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="38"/>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1835,8 +1835,8 @@
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1885,8 +1885,8 @@
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1911,7 +1911,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="38" t="s">
+      <c r="Z20" s="39" t="s">
         <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
@@ -2002,9 +2002,9 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2095,7 +2095,7 @@
         <v>17739</v>
       </c>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="38"/>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2184,9 +2184,9 @@
         <v>106839</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="38"/>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2238,9 +2238,9 @@
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="38"/>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2292,9 +2292,9 @@
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="38"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2346,9 +2346,9 @@
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
     </row>
-    <row r="25" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:48" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="29" t="s">
         <v>6</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="W25" s="30"/>
       <c r="X25" s="30"/>
       <c r="Y25" s="29"/>
-      <c r="Z25" s="39"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="31" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="AU25" s="32"/>
       <c r="AV25" s="32"/>
     </row>
-    <row r="26" spans="1:48" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -2450,7 +2450,7 @@
       <c r="AU26" s="33"/>
       <c r="AV26" s="33"/>
     </row>
-    <row r="27" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -2516,8 +2516,8 @@
       </c>
       <c r="AV27" s="36"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="34"/>
@@ -2636,8 +2636,8 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34" t="s">
         <v>1</v>
@@ -2803,8 +2803,8 @@
         <v>1305600</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34" t="s">
         <v>3</v>
@@ -2857,8 +2857,8 @@
       <c r="AU30" s="37"/>
       <c r="AV30" s="37"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34" t="s">
         <v>5</v>
@@ -2911,8 +2911,8 @@
       <c r="AU31" s="37"/>
       <c r="AV31" s="37"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34" t="s">
         <v>4</v>
@@ -2965,8 +2965,8 @@
       <c r="AU32" s="37"/>
       <c r="AV32" s="37"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34" t="s">
         <v>6</v>
